--- a/pred_ohlcv/54_21/2020-01-24 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>7.399076069999987</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>7.280076069999987</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>7.280076069999987</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4.632176069999987</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3.861361829999987</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3.861361829999987</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3.946561829999987</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2.492161829999987</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>0.1076526599999874</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-0.5534473400000126</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-0.5534473400000126</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-0.3073473400000126</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-0.7783473400000126</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1.116747340000013</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-0.5480473400000125</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>0.6333526599999875</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>0.3086526599999875</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-0.1139473400000125</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-0.1139473400000125</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-0.1139473400000125</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>0.0226526599999875</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-0.0041473400000125</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-0.0041473400000125</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>24.85716552999999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>25.91316973999999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>28.49236973999999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>54.90156973999999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>47.86696973999999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>47.24316973999998</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>50.89526973999998</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>42.39096973999998</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>43.33853299999998</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>43.27413299999998</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>44.41643299999998</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>71.43183299999998</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>67.63774445999998</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>68.40824445999998</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>37.31444445999998</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>37.19634445999998</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>37.79884445999998</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>37.36224448999997</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>38.96434451999998</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>9.737742999999977</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>9.870542999999977</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>9.010042999999976</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>9.010042999999976</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>11.30766617999998</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>9.275772659999978</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>9.341772659999979</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>11.06946353999998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>11.06946353999998</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>11.09956516999998</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>11.09956516999998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>13.23316516999998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>13.06336516999998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>12.05096516999998</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>12.05096516999998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>12.60436516999998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>12.63156516999998</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>11.72166516999998</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>11.72166516999998</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>12.36266516999998</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>12.32566516999998</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>11.47156516999998</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>11.26596516999998</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>10.67886516999998</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>10.55986317999998</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>14.00516118999998</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>13.18806118999998</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13.16176118999998</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>11.44076118999998</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>11.44076118999998</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>11.45066118999998</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>11.45076118999998</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>11.72296118999998</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>12.33416118999998</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>10.94786118999998</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>12.19490746999998</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>11.83530746999998</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>12.41350746999998</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>7.796607469999982</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>10.42850746999998</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>10.43630746999998</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>10.42160592999998</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>8.774905929999981</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>8.772005929999981</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>8.785005929999981</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>7.490405929999981</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4.708505929999982</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4.709705929999981</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4.834105929999981</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4.835305929999981</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4.835305929999981</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>8.151884559999981</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>8.151784559999982</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>8.090184559999981</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>8.093984559999981</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>8.093984559999981</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>8.141308389999981</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2.772093600000019</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>3.52300552999998</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>3.41560552999998</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>3.66110552999998</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>3.69100552999998</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>9.333001419999979</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>8.988701419999979</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>9.089874209999978</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>9.390074209999979</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>9.352074209999978</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>9.308574209999978</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>9.304074209999978</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>9.312074209999977</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>9.311274209999977</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9.311274209999977</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>9.314005209999978</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>9.236305209999978</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>14.81752766999998</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>14.78932766999998</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>15.38942766999998</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>15.36042766999998</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>15.35122766999998</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>15.82202766999998</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>15.43412766999998</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>16.30182766999998</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>17.96855454999998</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>17.72005454999998</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>17.82375454999998</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>17.89285454999998</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>17.74905454999998</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>17.75275454999998</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>17.74065454999998</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>17.82975454999998</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>17.89605454999997</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>17.68165454999997</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>17.68395454999997</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>18.70340274999997</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>14.68550274999997</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>14.69780423999997</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>14.56210423999997</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>15.61430423999997</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>15.27800426999997</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>14.69500426999997</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>15.33560426999997</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>15.53560426999997</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>15.53430426999997</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>14.83130426999997</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>14.59320426999997</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>14.87700426999997</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>14.87729659999997</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>14.87719576999997</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>14.12719576999997</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>13.94939576999997</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>14.22409576999997</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>14.04759576999997</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>13.76459576999997</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>13.88779223999997</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>14.02859223999997</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>14.48529223999997</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>14.16599761999997</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>14.15529761999997</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>14.16547927999997</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>14.11737927999997</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>14.31539761999997</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>14.31429761999997</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>14.31689761999997</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>14.28139761999997</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>14.24649761999997</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>14.29179761999997</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>14.18199761999997</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>14.18399761999997</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>14.18399761999997</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>14.29219761999997</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>14.21409761999998</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>14.21652003999997</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>14.21812003999997</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>14.19612003999997</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>14.19612003999997</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>14.19732003999997</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>12.30892003999997</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>13.81521744999997</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>13.75781744999997</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>13.75781744999997</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>13.70251744999997</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>13.70251744999997</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>13.70282777999997</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>13.68532777999997</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>14.11862777999997</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>14.12982777999997</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>14.37392620999997</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>14.44864647999997</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>14.27602244999997</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>14.19132244999997</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>14.19132244999997</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>14.41572244999997</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>14.49644647999997</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>14.49644647999997</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>14.89184647999997</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>14.89184647999997</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>14.85624647999997</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>14.85624647999997</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>16.74734647999997</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>15.47434647999997</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>15.47434647999997</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>15.31844642999997</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>15.32014642999997</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>15.32014642999997</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>15.35244642999997</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>15.20344642999997</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>15.20344642999997</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>15.25412074999997</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>15.86490960999997</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>15.65350960999997</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>16.14950950999998</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>16.27540950999998</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>16.26840950999998</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>16.95340950999998</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>17.19020950999997</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>17.34159165999997</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>17.31279165999997</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>17.31279165999997</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>16.98579165999997</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>16.98579165999997</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>16.79769165999997</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>16.79769165999997</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>18.04059165999997</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>18.04059165999997</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>14.75089165999997</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>13.86106838999997</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>14.58966838999997</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>15.39426838999997</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>15.33386838999997</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>16.51136838999997</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>16.78916838999998</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>15.90076838999997</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>16.24726838999997</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>16.10906838999997</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>18.83556838999997</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>18.17536838999997</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>17.57236838999997</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>17.90026838999997</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>15.73256838999997</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>18.63026838999997</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>18.46416838999997</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>25.94496838999997</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>26.72066838999997</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>26.69876838999997</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>27.66086286999997</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>27.61776286999998</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>27.57196286999998</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>15.12726286999998</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>13.34536286999998</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>16.00214025999998</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>15.86804025999998</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>24.88654025999998</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>24.19984025999998</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>24.82924025999998</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>24.82424025999998</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>23.29904025999998</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>23.29904025999998</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>23.34174025999998</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>25.04004154999998</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>25.06554154999998</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>25.34284156999998</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>24.01224156999998</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>24.81004156999997</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>24.62784005999998</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>24.77484005999997</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>23.97603779999997</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>24.80390381999997</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>24.66260381999997</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>24.66260381999997</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>25.14860381999997</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>25.13440381999997</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>24.89310381999997</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>24.59570381999997</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>25.88928660999997</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>25.90618660999997</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>25.68958660999997</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>26.15059906999997</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>25.71019906999997</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>25.71019906999997</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>23.05029906999997</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>23.18669906999997</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>22.66789906999997</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>21.23977548999997</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>20.80457548999997</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>17.25637546999997</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>16.74487546999997</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>12.00717961999997</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>12.66307961999997</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>12.84427858999997</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>13.43187858999997</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>13.97717858999997</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>13.65587858999997</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>12.68167858999997</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>15.50507725999997</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>15.21167727999997</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>14.67055477999997</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>14.77145477999997</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>14.52575477999997</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>14.82875477999997</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>17.97135477999997</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>19.42615472999997</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>18.08445472999997</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>17.44205472999997</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>20.77715472999997</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>27.21255472999997</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>27.92445472999997</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>19.91425472999997</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>21.94045472999997</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>21.57265472999998</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>21.84185472999998</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>21.42991123999998</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>19.78186604999998</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>23.38096604999998</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>20.67756604999998</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>21.15866604999998</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>18.94706604999998</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>18.42026604999998</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>17.17516604999998</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>13.77985357999998</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>10.44545357999998</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>2.242853579999975</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>5.847056249999975</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-135.29393134</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-127.7296361</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-128.66274086</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-128.66274086</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-134.43314086</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-135.18744086</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-135.18744086</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-134.43104086</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-134.49444086</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-132.43044086</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-133.90028952</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-128.49288464</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-128.70248464</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-128.70248464</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-121.56808464</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-121.56808464</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-118.47708464</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-127.72811384</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-127.72811384</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-130.79881384</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-131.8439766</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-135.4416191800001</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-135.4416191800001</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-136.4258726100001</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-136.8471946800001</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-137.0502170700001</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-137.0502170700001</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-137.6488170700001</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-147.2536228900001</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-147.1368228700001</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-127.0246700800001</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-125.5946700800001</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-131.4666700800001</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-148.5387700800001</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-145.4975782300001</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-126.3497782300001</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-133.8455782300001</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-145.5713776100001</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-159.8728776100001</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-178.6980006600001</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-167.0444006600001</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-166.0504237100001</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-136.3519237100001</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-136.3519237100001</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-134.2537237100001</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-136.3211237100001</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-133.8728237100001</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-133.6069445600001</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-134.2236445600001</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-140.8624445600001</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-131.4361445600001</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-131.4361445600001</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-118.9064621000001</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-132.6653621000001</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-116.3499883800001</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-141.2438883800001</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-128.6041883800001</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-128.5885883800001</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-128.5885883800001</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-128.1383883800001</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-127.7122883800001</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-127.1551883800001</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-127.0980676000001</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-130.9280010600001</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-128.1837010600001</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-127.8460553000001</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-126.9990110300001</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-126.3889071600001</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-128.2507072000001</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-127.1972907800001</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-124.8746907800001</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-124.8746907800001</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-123.9542907800001</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-123.0041907800001</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-134.0025907800001</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-130.9729870400001</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-131.3408870400001</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-124.9711870400001</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-122.0545200900001</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-125.8075200900001</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-116.6381200900001</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-116.6381200900001</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-115.1151200900001</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-115.1151200900001</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-219.5171810100001</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-216.7892364500001</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-218.3448364500001</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-221.1523661200001</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-221.8969859200001</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-222.9141859200001</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-222.9141859200001</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-220.8135859200002</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-221.3098859200001</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-224.5098859200001</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-218.2682044800002</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-215.9622695800002</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-218.3918695800002</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-218.2485695800002</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-220.2503695800002</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-225.2776695800002</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-225.5894695800002</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-251.1985154800001</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-251.0096154800001</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-252.0004154800001</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-253.7889154800001</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-253.7889154800001</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-254.0725154800001</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-256.7937488900001</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-261.6914652000002</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-258.5679652000002</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-256.4728652000002</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-257.5491299500002</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-257.5491299500002</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-261.1334067900002</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-274.0613067900002</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-281.4345067900002</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-285.0247068100002</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-285.0247068100002</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-272.9403463400002</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-277.3794463400002</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-271.2865463400002</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-267.8933588500002</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-270.3184372700002</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-270.6284372700002</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-282.4148372700002</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-283.8736372700002</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-291.7830372700002</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-278.8255372700002</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-294.2960727000002</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-279.1970128200001</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-278.65268373</v>
       </c>
       <c r="H1301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-284.1035887400001</v>
       </c>
       <c r="H1307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-276.9874166800001</v>
       </c>
       <c r="H1308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-278.8081244500002</v>
       </c>
       <c r="H1309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-270.4505322200001</v>
       </c>
       <c r="H1310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-273.4654322200001</v>
       </c>
       <c r="H1311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-274.8863322200002</v>
       </c>
       <c r="H1312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-272.1471931600001</v>
       </c>
       <c r="H1313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-273.8174773700001</v>
       </c>
       <c r="H1314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-249.1492636200001</v>
       </c>
       <c r="H1316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-241.2352108900001</v>
       </c>
       <c r="H1317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-242.2367474800001</v>
       </c>
       <c r="H1318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-242.2367474800001</v>
       </c>
       <c r="H1319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-241.4560474400001</v>
       </c>
       <c r="H1320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-245.0069209300001</v>
       </c>
       <c r="H1321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-246.6491676200001</v>
       </c>
       <c r="H1322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-248.3633044200001</v>
       </c>
       <c r="H1323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-250.2572044200001</v>
       </c>
       <c r="H1324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-252.7367936000001</v>
       </c>
       <c r="H1325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-255.1630314800001</v>
       </c>
       <c r="H1326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-251.6462201100001</v>
       </c>
       <c r="H1327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-251.7984201100001</v>
       </c>
       <c r="H1328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>7.399076069999987</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>24.85716552999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>28.49236973999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>47.86696973999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>47.24316973999998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>50.89526973999998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>42.39096973999998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>43.33853299999998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>43.27413299999998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>44.41643299999998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>71.43183299999998</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>67.63774445999998</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>68.40824445999998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>37.31444445999998</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>37.19634445999998</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>37.36224448999997</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>38.96434451999998</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>13.13036118999998</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>13.18806118999998</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13.16176118999998</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>11.44076118999998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>11.44076118999998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>11.45066118999998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>11.45076118999998</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>11.72296118999998</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>12.33416118999998</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>10.94786118999998</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>12.19490746999998</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>11.83530746999998</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>12.41350746999998</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>7.796607469999982</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>10.42850746999998</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>10.43630746999998</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>10.42160592999998</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>8.774905929999981</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>8.772005929999981</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>8.785005929999981</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>7.490405929999981</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4.708505929999982</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4.709705929999981</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4.834105929999981</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4.835305929999981</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4.835305929999981</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>8.151884559999981</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>8.151784559999982</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>8.090184559999981</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>8.093984559999981</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>8.093984559999981</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>8.141308389999981</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2.772093600000019</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>3.52300552999998</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>3.41560552999998</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>9.333001419999979</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>8.988701419999979</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>9.089874209999978</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>9.390074209999979</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>9.352074209999978</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>9.308574209999978</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>9.304074209999978</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>9.312074209999977</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>9.311274209999977</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9.311274209999977</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>9.314005209999978</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>9.236305209999978</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>14.81752766999998</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>14.78932766999998</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>15.38942766999998</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>15.36042766999998</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>15.35122766999998</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>15.82202766999998</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>15.43412766999998</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>16.30182766999998</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>17.96855454999998</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>17.72005454999998</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>17.82375454999998</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>17.89285454999998</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>17.74905454999998</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>17.75275454999998</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>17.74065454999998</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>17.82975454999998</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>17.89605454999997</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>17.68165454999997</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>17.68395454999997</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>18.70340274999997</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>14.68550274999997</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>14.69780423999997</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>14.56210423999997</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>15.61430423999997</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>15.27800426999997</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>14.69500426999997</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>15.33560426999997</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>15.53560426999997</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>15.53430426999997</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>14.83130426999997</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>14.59320426999997</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>14.87700426999997</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>14.87729659999997</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>14.87719576999997</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>14.12719576999997</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>13.94939576999997</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>14.22409576999997</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>14.04759576999997</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>13.76459576999997</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>13.88779223999997</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>14.02859223999997</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>14.48529223999997</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>14.16599761999997</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>14.15529761999997</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>14.16547927999997</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>14.11737927999997</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>14.31539761999997</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>14.31429761999997</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>14.31689761999997</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>14.28139761999997</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>14.24649761999997</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>14.29179761999997</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>14.18199761999997</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>14.18399761999997</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>14.18399761999997</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>14.29219761999997</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>14.21409761999998</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>14.21652003999997</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>14.21812003999997</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>14.19612003999997</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>14.19612003999997</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>14.19732003999997</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>12.30892003999997</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>13.81521744999997</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>13.75781744999997</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>13.75781744999997</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>13.70251744999997</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>13.70251744999997</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>13.70282777999997</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>13.68532777999997</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>14.11862777999997</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>14.12982777999997</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>14.37392620999997</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>14.44864647999997</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>14.27602244999997</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>14.19132244999997</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>14.19132244999997</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>14.41572244999997</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>14.49644647999997</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>14.49644647999997</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>14.89184647999997</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>14.89184647999997</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>14.85624647999997</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>14.85624647999997</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>16.74734647999997</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>15.47434647999997</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>15.47434647999997</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>15.31844642999997</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>15.32014642999997</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>15.32014642999997</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>15.35244642999997</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>15.20344642999997</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>15.20344642999997</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>15.25412074999997</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>15.86490960999997</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>15.65350960999997</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>16.14950950999998</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>16.27540950999998</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>16.26840950999998</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>16.95340950999998</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>17.19020950999997</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>17.34159165999997</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>17.31279165999997</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>17.31279165999997</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>16.98579165999997</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>16.98579165999997</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>16.79769165999997</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>16.79769165999997</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>18.04059165999997</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>18.04059165999997</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>14.75089165999997</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>13.86106838999997</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>14.58966838999997</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>15.39426838999997</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>15.33386838999997</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>16.51136838999997</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>16.78916838999998</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>15.90076838999997</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>16.24726838999997</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>16.10906838999997</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>18.83556838999997</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>18.17536838999997</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>17.57236838999997</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>17.90026838999997</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>15.73256838999997</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>18.63026838999997</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>18.46416838999997</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>25.94496838999997</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>26.72066838999997</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>26.69876838999997</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>27.66086286999997</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>27.61776286999998</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>27.57196286999998</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>15.12726286999998</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>13.34536286999998</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>16.00214025999998</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>15.86804025999998</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>24.88654025999998</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>24.19984025999998</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>24.82924025999998</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>24.82424025999998</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>23.29904025999998</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>23.29904025999998</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>23.34174025999998</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>25.04004154999998</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>25.06554154999998</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>25.34284156999998</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>24.01224156999998</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>24.81004156999997</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>24.62784005999998</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>24.77484005999997</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>23.97603779999997</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>24.80390381999997</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>24.66260381999997</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>24.66260381999997</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>25.14860381999997</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>25.13440381999997</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>24.89310381999997</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>24.59570381999997</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>25.88928660999997</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>25.90618660999997</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>25.68958660999997</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>26.15059906999997</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>25.71019906999997</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>25.71019906999997</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>23.05029906999997</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>23.18669906999997</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>22.66789906999997</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>21.23977548999997</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>20.80457548999997</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>17.25637546999997</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>16.74487546999997</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>12.00717961999997</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>12.66307961999997</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>10.37817858999997</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>12.84427858999997</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>13.43187858999997</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>13.97717858999997</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>13.97717858999997</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>13.65587858999997</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>12.68167858999997</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>15.50507725999997</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>15.21167727999997</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>14.67055477999997</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>14.77145477999997</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>14.52575477999997</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>14.82875477999997</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>17.97135477999997</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>19.42615472999997</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>18.08445472999997</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>17.44205472999997</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>20.77715472999997</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>27.21255472999997</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>27.92445472999997</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>19.91425472999997</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>21.94045472999997</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>21.57265472999998</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>21.84185472999998</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>21.42991123999998</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>19.78186604999998</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>23.38096604999998</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>20.67756604999998</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>21.15866604999998</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>18.94706604999998</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>18.42026604999998</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>17.17516604999998</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>13.77985357999998</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>10.44545357999998</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>2.242853579999975</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-135.29393134</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-127.7296361</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-128.66274086</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-128.66274086</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-134.43314086</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-135.18744086</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-135.18744086</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-134.43104086</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-134.49444086</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-132.43044086</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-133.90028952</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-128.49288464</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-128.70248464</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-128.70248464</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-121.56808464</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-121.56808464</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-118.47708464</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-127.72811384</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-127.72811384</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-130.79881384</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-131.8439766</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-135.4416191800001</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-135.4416191800001</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-136.4258726100001</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-136.8471946800001</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-137.0502170700001</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-137.0502170700001</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-137.6488170700001</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-147.2536228900001</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-147.1368228700001</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-127.0246700800001</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-125.5946700800001</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-131.4666700800001</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-148.5387700800001</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-145.4975782300001</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-126.3497782300001</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-133.8455782300001</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-145.5713776100001</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-159.8728776100001</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-178.6980006600001</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-167.0444006600001</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-166.0504237100001</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-136.3519237100001</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-136.3519237100001</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-134.2537237100001</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-136.3211237100001</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-133.8728237100001</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-133.6069445600001</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-134.2236445600001</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-140.8624445600001</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-131.4361445600001</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-131.4361445600001</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-118.9064621000001</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-132.6653621000001</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-116.3499883800001</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-141.2438883800001</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-128.6041883800001</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-128.5885883800001</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-128.5885883800001</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-128.1383883800001</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-127.7122883800001</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-127.1551883800001</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-127.0980676000001</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-130.9280010600001</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-128.1837010600001</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-127.8460553000001</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-126.9990110300001</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-126.3889071600001</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-128.2507072000001</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-127.1972907800001</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-124.8746907800001</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-124.8746907800001</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-123.9542907800001</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-123.0041907800001</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-134.0025907800001</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-130.9729870400001</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-131.3408870400001</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-124.9711870400001</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-122.0545200900001</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-125.8075200900001</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-116.6381200900001</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-116.6381200900001</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-115.1151200900001</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-115.1151200900001</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-110.8098027900001</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-219.5171810100001</v>
       </c>
       <c r="H1158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-216.7892364500001</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-218.3448364500001</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-221.1523661200001</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-221.8969859200001</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-222.9141859200001</v>
       </c>
       <c r="H1174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-222.9141859200001</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-220.8135859200002</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-221.3098859200001</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-224.5098859200001</v>
       </c>
       <c r="H1178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-218.2682044800002</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-215.9622695800002</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-218.3918695800002</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-218.2485695800002</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-220.2503695800002</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-225.2776695800002</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-225.5894695800002</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-251.1985154800001</v>
       </c>
       <c r="H1247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-251.0096154800001</v>
       </c>
       <c r="H1248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-252.0004154800001</v>
       </c>
       <c r="H1249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-253.7889154800001</v>
       </c>
       <c r="H1250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-253.7889154800001</v>
       </c>
       <c r="H1251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-254.0725154800001</v>
       </c>
       <c r="H1252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-256.7937488900001</v>
       </c>
       <c r="H1253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-261.6914652000002</v>
       </c>
       <c r="H1254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-258.5679652000002</v>
       </c>
       <c r="H1255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-256.4728652000002</v>
       </c>
       <c r="H1256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-257.5491299500002</v>
       </c>
       <c r="H1257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-257.5491299500002</v>
       </c>
       <c r="H1258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-261.1334067900002</v>
       </c>
       <c r="H1259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-274.0613067900002</v>
       </c>
       <c r="H1263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-281.4345067900002</v>
       </c>
       <c r="H1264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-285.0247068100002</v>
       </c>
       <c r="H1265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-285.0247068100002</v>
       </c>
       <c r="H1266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-272.9403463400002</v>
       </c>
       <c r="H1267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-277.3794463400002</v>
       </c>
       <c r="H1268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-271.2865463400002</v>
       </c>
       <c r="H1269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-267.8933588500002</v>
       </c>
       <c r="H1273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-270.3184372700002</v>
       </c>
       <c r="H1274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-270.6284372700002</v>
       </c>
       <c r="H1275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-282.4148372700002</v>
       </c>
       <c r="H1276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-283.8736372700002</v>
       </c>
       <c r="H1277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-291.7830372700002</v>
       </c>
       <c r="H1278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-278.8255372700002</v>
       </c>
       <c r="H1279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-294.2960727000002</v>
       </c>
       <c r="H1280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-279.1970128200001</v>
       </c>
       <c r="H1296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-272.8384736300001</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-277.9648887400001</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-280.4867887400001</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-284.1035887400001</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-276.9874166800001</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-278.8081244500002</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-270.4505322200001</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-273.4654322200001</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-274.8863322200002</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-272.1471931600001</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-273.8174773700001</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-249.1492636200001</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-251.6462201100001</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-251.7984201100001</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
